--- a/biology/Médecine/Intoxication_professionnelle_au_phosphore_(France)/Intoxication_professionnelle_au_phosphore_(France).xlsx
+++ b/biology/Médecine/Intoxication_professionnelle_au_phosphore_(France)/Intoxication_professionnelle_au_phosphore_(France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intoxication au phosphore est l'une des plus anciennes maladies professionnelle connue au début de l’ère industrielle. Les critères administratifs ci-dessous ont été définis pour qu'une intoxication au phosphore soit reconnue comme maladie professionnelle en France.  Pour la description clinique de la maladie se reporter à l'article suivant :
 </t>
@@ -513,9 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles et médicales
-L'ostéonécrose du maxillaire connue des anglo-saxons sous le terme familier de Phossy jaw (nécrose phosphorée de la mâchoire) a été décrite au XIXe et au début du XXe siècle chez les ouvriers des manufactures d’allumettes. Les pratiques modernes d'hygiène industrielle ont permis d'éliminer les conditions de travail qui conduisaient à cette calamité notamment par le remplacement du phosphore blanc par le phosphore rouge ou le sesquisulfure de phosphore après des années de luttes syndicales dont l'aboutissement est la convention de Berne de 1906 imposant aux états signataires l'interdiction du phosphore blanc dans l'industrie des allumettes[2]. La nécrose du maxillaire est toujours considérée comme une maladie professionnelle et inscrite en France au Tableau N° 5 des affections indemnisées à ce titre par la sécurité sociale, mais cette affection n'a plus qu'un intérêt historique.
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_phosphore_(France)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_phosphore_(France)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles et médicales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ostéonécrose du maxillaire connue des anglo-saxons sous le terme familier de Phossy jaw (nécrose phosphorée de la mâchoire) a été décrite au XIXe et au début du XXe siècle chez les ouvriers des manufactures d’allumettes. Les pratiques modernes d'hygiène industrielle ont permis d'éliminer les conditions de travail qui conduisaient à cette calamité notamment par le remplacement du phosphore blanc par le phosphore rouge ou le sesquisulfure de phosphore après des années de luttes syndicales dont l'aboutissement est la convention de Berne de 1906 imposant aux états signataires l'interdiction du phosphore blanc dans l'industrie des allumettes. La nécrose du maxillaire est toujours considérée comme une maladie professionnelle et inscrite en France au Tableau N° 5 des affections indemnisées à ce titre par la sécurité sociale, mais cette affection n'a plus qu'un intérêt historique.
 Dans un autre contexte, que l'utilisation à des fins thérapeutiques de certains dérivés du phosphore, les Bisphosphonates a donné lieu récemment à la survenue de nouveau cas d'ostéonécrose du maxillaire.
 </t>
         </is>
